--- a/develop/exxcel_result.xlsx
+++ b/develop/exxcel_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/Open-Set-Reconigtion/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{928A19F0-D5E2-0E48-B35B-35578ED1B41F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C922E-6135-884C-A1D2-D834C3F113D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13420" xr2:uid="{C7347701-B801-404D-B9DA-A564A8C25A23}"/>
   </bookViews>
@@ -80,519 +80,8364 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1597999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5215000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.2336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64849999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.10440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.74060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.0200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.27900000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B39-9F48-AF48-70A54CB262FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1791276575"/>
+        <c:axId val="1631759647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1791276575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631759647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1631759647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791276575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0035000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4703999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.2700000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.71109999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2692000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.6600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.71860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.72370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.46029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0ADA-5344-A514-2188EE643561}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1791452639"/>
+        <c:axId val="1791444687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1791452639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791444687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1791444687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791452639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.62319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0615000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.94430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8211999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.74209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2078</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33560000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00F2-674D-A83D-5292C6E792F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1791557439"/>
+        <c:axId val="1751960751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1791557439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751960751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1751960751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791557439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$1:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.33939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.34670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.52470000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.29530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.58560000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$1:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.21809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.54759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2515-7E43-8177-811E7CB1D5CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1791783919"/>
+        <c:axId val="1791904735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1791783919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791904735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1791904735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791783919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$1:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.24829999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$1:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.53869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.65E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.86260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5714999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.39910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.35349999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8912-6742-99FF-9A2757C95401}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1788920127"/>
+        <c:axId val="1746701759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1788920127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746701759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1746701759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1788920127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$1:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.7183999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3052999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2528999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.93740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$1:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.3913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.27510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5410999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6A8-D746-8F04-D89D306ACD0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1750120223"/>
+        <c:axId val="1748854015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1750120223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748854015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1748854015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750120223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$1:$AE$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.80079999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.35249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.49580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.83250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3278000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$1:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.98529999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0368999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4874000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.86799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29B9-8443-BEDD-831A3132FD85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1749906831"/>
+        <c:axId val="1790970495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1749906831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790970495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1790970495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749906831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$1:$AJ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.3606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.50580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6608000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$1:$AK$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.77729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0921000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.26640000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72770000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFA9-BD49-90E9-5E6983E6566D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1746990415"/>
+        <c:axId val="1749794479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1746990415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749794479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1749794479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746990415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AN$1:$AN$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45390000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.92369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AO$1:$AO$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.27650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81830000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.91259999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.98180000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2241-A048-AF40-409300938156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1748065823"/>
+        <c:axId val="1748862015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1748065823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748862015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1748862015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748065823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1AFEE2-40E8-964B-B135-FF73417FE28F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D4B4DF-8267-8441-AB80-7508379450CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484176E9-7129-F24B-A9C3-555ED9748EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887887C2-CA70-EC42-9CC2-ADCF97531219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E68F5F3-CBD7-FD4C-99C8-4BA75BF117A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F9009C-9C91-8D4D-BDF9-61570D55CBF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC989B55-1180-054C-AB35-97ACA8DAD66E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A22671B-BEFE-BE46-98EE-DA86599EA783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143CE789-18C7-F545-B0E6-B284A7C96B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="US college"/>
-      <sheetName val="Sheet1"/>
       <sheetName val="CS Rank"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1">
-            <v>3147</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>889</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>504</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>281</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>203</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>119</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -895,15 +8740,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88F1A1-04F9-CA4D-9A01-F3406173B6DF}">
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AO100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1.1597999999999999</v>
       </c>
@@ -946,8 +8791,20 @@
       <c r="AF1">
         <v>0.98529999999999995</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ1">
+        <v>1.3606</v>
+      </c>
+      <c r="AK1">
+        <v>-0.77729999999999999</v>
+      </c>
+      <c r="AN1">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="AO1">
+        <v>0.27650000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -990,8 +8847,20 @@
       <c r="AF2">
         <v>0.73129999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ2">
+        <v>0.2298</v>
+      </c>
+      <c r="AK2">
+        <v>1.0921000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>-0.45</v>
+      </c>
+      <c r="AO2">
+        <v>0.12139999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-0.41220000000000001</v>
       </c>
@@ -1034,8 +8903,20 @@
       <c r="AF3">
         <v>0.82250000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ3">
+        <v>1.2982</v>
+      </c>
+      <c r="AK3">
+        <v>-0.44769999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="AO3">
+        <v>-0.41470000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.1522</v>
       </c>
@@ -1078,8 +8959,20 @@
       <c r="AF4">
         <v>0.31969999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ4">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="AK4">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>-0.92369999999999997</v>
+      </c>
+      <c r="AO4">
+        <v>0.81830000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.90839999999999999</v>
       </c>
@@ -1122,8 +9015,20 @@
       <c r="AF5">
         <v>1.0368999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ5">
+        <v>-0.50580000000000003</v>
+      </c>
+      <c r="AK5">
+        <v>-0.26640000000000003</v>
+      </c>
+      <c r="AN5">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="AO5">
+        <v>0.26790000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.5215000000000001</v>
       </c>
@@ -1166,8 +9071,20 @@
       <c r="AF6">
         <v>-1.4874000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ6">
+        <v>1.0359</v>
+      </c>
+      <c r="AK6">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="AN6">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="AO6">
+        <v>-0.91259999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>-0.2336</v>
       </c>
@@ -1210,8 +9127,20 @@
       <c r="AF7">
         <v>-1.95E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ7">
+        <v>1.6608000000000001</v>
+      </c>
+      <c r="AK7">
+        <v>1.2176</v>
+      </c>
+      <c r="AN7">
+        <v>0.3322</v>
+      </c>
+      <c r="AO7">
+        <v>0.32869999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.64849999999999997</v>
       </c>
@@ -1254,11 +9183,23 @@
       <c r="AF8">
         <v>-0.86799999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ8">
+        <v>1.2321</v>
+      </c>
+      <c r="AK8">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="AN8">
+        <v>-0.1338</v>
+      </c>
+      <c r="AO8">
+        <v>-0.98180000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.18096999999999999</v>
       </c>
@@ -1344,22 +9285,22 @@
         <v>0.19091</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1616,6 +9557,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
